--- a/Data/관심주_전년기준.xlsx
+++ b/Data/관심주_전년기준.xlsx
@@ -3793,10 +3793,10 @@
         <v>121.28</v>
       </c>
       <c r="Q2" t="n">
-        <v>10520</v>
+        <v>10736</v>
       </c>
       <c r="R2" t="n">
-        <v>119.3</v>
+        <v>122.94</v>
       </c>
     </row>
     <row r="3">
@@ -3861,10 +3861,10 @@
         <v>149.1</v>
       </c>
       <c r="Q3" t="n">
-        <v>27116</v>
+        <v>27316</v>
       </c>
       <c r="R3" t="n">
-        <v>146.04</v>
+        <v>147.16</v>
       </c>
     </row>
     <row r="4">
@@ -3929,10 +3929,10 @@
         <v>122.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>6080</v>
+        <v>6103</v>
       </c>
       <c r="R4" t="n">
-        <v>120.07</v>
+        <v>120.75</v>
       </c>
     </row>
     <row r="5">
@@ -3997,10 +3997,10 @@
         <v>126</v>
       </c>
       <c r="Q5" t="n">
-        <v>12456</v>
+        <v>11890</v>
       </c>
       <c r="R5" t="n">
-        <v>124.83</v>
+        <v>116.48</v>
       </c>
     </row>
     <row r="6">
@@ -4065,10 +4065,10 @@
         <v>128.78</v>
       </c>
       <c r="Q6" t="n">
-        <v>40700</v>
+        <v>40933</v>
       </c>
       <c r="R6" t="n">
-        <v>127.52</v>
+        <v>128.5</v>
       </c>
     </row>
     <row r="7">
@@ -4133,10 +4133,10 @@
         <v>124.38</v>
       </c>
       <c r="Q7" t="n">
-        <v>12283</v>
+        <v>12950</v>
       </c>
       <c r="R7" t="n">
-        <v>127</v>
+        <v>135.91</v>
       </c>
     </row>
     <row r="8">
@@ -4201,10 +4201,10 @@
         <v>138.3</v>
       </c>
       <c r="Q8" t="n">
-        <v>23766</v>
+        <v>23083</v>
       </c>
       <c r="R8" t="n">
-        <v>135.69</v>
+        <v>130.83</v>
       </c>
     </row>
     <row r="9">
@@ -4269,10 +4269,10 @@
         <v>127.97</v>
       </c>
       <c r="Q9" t="n">
-        <v>3528</v>
+        <v>3511</v>
       </c>
       <c r="R9" t="n">
-        <v>125.7</v>
+        <v>124.87</v>
       </c>
     </row>
     <row r="10">
@@ -4337,10 +4337,10 @@
         <v>115.43</v>
       </c>
       <c r="Q10" t="n">
-        <v>8840</v>
+        <v>8733</v>
       </c>
       <c r="R10" t="n">
-        <v>113.69</v>
+        <v>111.41</v>
       </c>
     </row>
     <row r="11">
@@ -4405,10 +4405,10 @@
         <v>117.57</v>
       </c>
       <c r="Q11" t="n">
-        <v>6871</v>
+        <v>6811</v>
       </c>
       <c r="R11" t="n">
-        <v>118.46</v>
+        <v>116.86</v>
       </c>
     </row>
     <row r="12">
@@ -4473,10 +4473,10 @@
         <v>117.72</v>
       </c>
       <c r="Q12" t="n">
-        <v>33633</v>
+        <v>33300</v>
       </c>
       <c r="R12" t="n">
-        <v>114.47</v>
+        <v>112.61</v>
       </c>
     </row>
     <row r="13">
@@ -4541,10 +4541,10 @@
         <v>117.94</v>
       </c>
       <c r="Q13" t="n">
-        <v>111266</v>
+        <v>114666</v>
       </c>
       <c r="R13" t="n">
-        <v>117.02</v>
+        <v>122.44</v>
       </c>
     </row>
     <row r="14">
@@ -4677,10 +4677,10 @@
         <v>126.72</v>
       </c>
       <c r="Q15" t="n">
-        <v>6253</v>
+        <v>6163</v>
       </c>
       <c r="R15" t="n">
-        <v>126.81</v>
+        <v>124.28</v>
       </c>
     </row>
     <row r="16">
@@ -4745,10 +4745,10 @@
         <v>108.88</v>
       </c>
       <c r="Q16" t="n">
-        <v>1273</v>
+        <v>1283</v>
       </c>
       <c r="R16" t="n">
-        <v>108.38</v>
+        <v>109.87</v>
       </c>
     </row>
     <row r="17">
@@ -4813,10 +4813,10 @@
         <v>117.76</v>
       </c>
       <c r="Q17" t="n">
-        <v>6516</v>
+        <v>6456</v>
       </c>
       <c r="R17" t="n">
-        <v>115.24</v>
+        <v>113.53</v>
       </c>
     </row>
     <row r="18">
@@ -4881,10 +4881,10 @@
         <v>124.02</v>
       </c>
       <c r="Q18" t="n">
-        <v>4496</v>
+        <v>4456</v>
       </c>
       <c r="R18" t="n">
-        <v>128.33</v>
+        <v>126.79</v>
       </c>
     </row>
     <row r="19">
@@ -4949,10 +4949,10 @@
         <v>127.33</v>
       </c>
       <c r="Q19" t="n">
-        <v>4946</v>
+        <v>4993</v>
       </c>
       <c r="R19" t="n">
-        <v>127.56</v>
+        <v>129.17</v>
       </c>
     </row>
     <row r="20">
@@ -5017,10 +5017,10 @@
         <v>119.52</v>
       </c>
       <c r="Q20" t="n">
-        <v>12810</v>
+        <v>12510</v>
       </c>
       <c r="R20" t="n">
-        <v>117.88</v>
+        <v>113.51</v>
       </c>
     </row>
     <row r="21">
@@ -5085,10 +5085,10 @@
         <v>123.34</v>
       </c>
       <c r="Q21" t="n">
-        <v>28100</v>
+        <v>27633</v>
       </c>
       <c r="R21" t="n">
-        <v>121.35</v>
+        <v>118.34</v>
       </c>
     </row>
     <row r="22">
@@ -5153,10 +5153,10 @@
         <v>127.49</v>
       </c>
       <c r="Q22" t="n">
-        <v>5720</v>
+        <v>5646</v>
       </c>
       <c r="R22" t="n">
-        <v>124.48</v>
+        <v>122.2</v>
       </c>
     </row>
     <row r="23">
@@ -5221,10 +5221,10 @@
         <v>142.76</v>
       </c>
       <c r="Q23" t="n">
-        <v>1750</v>
+        <v>1808</v>
       </c>
       <c r="R23" t="n">
-        <v>144.86</v>
+        <v>149.86</v>
       </c>
     </row>
     <row r="24">
@@ -5289,10 +5289,10 @@
         <v>114.48</v>
       </c>
       <c r="Q24" t="n">
-        <v>11360</v>
+        <v>11143</v>
       </c>
       <c r="R24" t="n">
-        <v>113.12</v>
+        <v>109.48</v>
       </c>
     </row>
     <row r="25">
@@ -5357,10 +5357,10 @@
         <v>108.72</v>
       </c>
       <c r="Q25" t="n">
-        <v>2418</v>
+        <v>2406</v>
       </c>
       <c r="R25" t="n">
-        <v>107.93</v>
+        <v>106.99</v>
       </c>
     </row>
     <row r="26">
@@ -5425,10 +5425,10 @@
         <v>106.93</v>
       </c>
       <c r="Q26" t="n">
-        <v>21716</v>
+        <v>21550</v>
       </c>
       <c r="R26" t="n">
-        <v>107.52</v>
+        <v>106.03</v>
       </c>
     </row>
     <row r="27">
@@ -5493,10 +5493,10 @@
         <v>115.57</v>
       </c>
       <c r="Q27" t="n">
-        <v>7223</v>
+        <v>7266</v>
       </c>
       <c r="R27" t="n">
-        <v>114.21</v>
+        <v>115.32</v>
       </c>
     </row>
     <row r="28">
@@ -5561,10 +5561,10 @@
         <v>125.3</v>
       </c>
       <c r="Q28" t="n">
-        <v>5910</v>
+        <v>5796</v>
       </c>
       <c r="R28" t="n">
-        <v>120.47</v>
+        <v>116.96</v>
       </c>
     </row>
     <row r="29">
@@ -5629,10 +5629,10 @@
         <v>112.06</v>
       </c>
       <c r="Q29" t="n">
-        <v>43683</v>
+        <v>43333</v>
       </c>
       <c r="R29" t="n">
-        <v>109.19</v>
+        <v>107.65</v>
       </c>
     </row>
     <row r="30">
@@ -5697,10 +5697,10 @@
         <v>113.58</v>
       </c>
       <c r="Q30" t="n">
-        <v>54483</v>
+        <v>53516</v>
       </c>
       <c r="R30" t="n">
-        <v>111.41</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31">
@@ -5765,10 +5765,10 @@
         <v>107.46</v>
       </c>
       <c r="Q31" t="n">
-        <v>9180</v>
+        <v>9230</v>
       </c>
       <c r="R31" t="n">
-        <v>106.97</v>
+        <v>108.02</v>
       </c>
     </row>
     <row r="32">
@@ -5833,10 +5833,10 @@
         <v>107.11</v>
       </c>
       <c r="Q32" t="n">
-        <v>6576</v>
+        <v>6790</v>
       </c>
       <c r="R32" t="n">
-        <v>107.5</v>
+        <v>113.55</v>
       </c>
     </row>
     <row r="33">
@@ -5901,10 +5901,10 @@
         <v>105.57</v>
       </c>
       <c r="Q33" t="n">
-        <v>9400</v>
+        <v>9320</v>
       </c>
       <c r="R33" t="n">
-        <v>107.98</v>
+        <v>106.33</v>
       </c>
     </row>
     <row r="34">
@@ -5969,10 +5969,10 @@
         <v>102.68</v>
       </c>
       <c r="Q34" t="n">
-        <v>42783</v>
+        <v>42650</v>
       </c>
       <c r="R34" t="n">
-        <v>102.14</v>
+        <v>101.52</v>
       </c>
     </row>
     <row r="35">
@@ -6037,10 +6037,10 @@
         <v>104.35</v>
       </c>
       <c r="Q35" t="n">
-        <v>33016</v>
+        <v>33116</v>
       </c>
       <c r="R35" t="n">
-        <v>104.95</v>
+        <v>105.54</v>
       </c>
     </row>
     <row r="36">
@@ -6105,10 +6105,10 @@
         <v>102.49</v>
       </c>
       <c r="Q36" t="n">
-        <v>3295</v>
+        <v>3320</v>
       </c>
       <c r="R36" t="n">
-        <v>103.79</v>
+        <v>105.27</v>
       </c>
     </row>
     <row r="37">
@@ -6173,10 +6173,10 @@
         <v>117.99</v>
       </c>
       <c r="Q37" t="n">
-        <v>19027</v>
+        <v>18760</v>
       </c>
       <c r="R37" t="n">
-        <v>117.99</v>
+        <v>115.4</v>
       </c>
     </row>
   </sheetData>

--- a/Data/관심주_전년기준.xlsx
+++ b/Data/관심주_전년기준.xlsx
@@ -3793,10 +3793,10 @@
         <v>121.28</v>
       </c>
       <c r="Q2" t="n">
-        <v>10736</v>
+        <v>10703</v>
       </c>
       <c r="R2" t="n">
-        <v>122.94</v>
+        <v>122.39</v>
       </c>
     </row>
     <row r="3">
@@ -3929,10 +3929,10 @@
         <v>122.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>6103</v>
+        <v>6070</v>
       </c>
       <c r="R4" t="n">
-        <v>120.75</v>
+        <v>119.77</v>
       </c>
     </row>
     <row r="5">
@@ -3997,10 +3997,10 @@
         <v>126</v>
       </c>
       <c r="Q5" t="n">
-        <v>11890</v>
+        <v>11723</v>
       </c>
       <c r="R5" t="n">
-        <v>116.48</v>
+        <v>113.88</v>
       </c>
     </row>
     <row r="6">
@@ -4065,10 +4065,10 @@
         <v>128.78</v>
       </c>
       <c r="Q6" t="n">
-        <v>40933</v>
+        <v>40966</v>
       </c>
       <c r="R6" t="n">
-        <v>128.5</v>
+        <v>128.64</v>
       </c>
     </row>
     <row r="7">
@@ -4133,10 +4133,10 @@
         <v>124.38</v>
       </c>
       <c r="Q7" t="n">
-        <v>12950</v>
+        <v>12966</v>
       </c>
       <c r="R7" t="n">
-        <v>135.91</v>
+        <v>136.12</v>
       </c>
     </row>
     <row r="8">
@@ -4201,10 +4201,10 @@
         <v>138.3</v>
       </c>
       <c r="Q8" t="n">
-        <v>23083</v>
+        <v>23016</v>
       </c>
       <c r="R8" t="n">
-        <v>130.83</v>
+        <v>130.34</v>
       </c>
     </row>
     <row r="9">
@@ -4269,10 +4269,10 @@
         <v>127.97</v>
       </c>
       <c r="Q9" t="n">
-        <v>3511</v>
+        <v>3500</v>
       </c>
       <c r="R9" t="n">
-        <v>124.87</v>
+        <v>124.29</v>
       </c>
     </row>
     <row r="10">
@@ -4337,10 +4337,10 @@
         <v>115.43</v>
       </c>
       <c r="Q10" t="n">
-        <v>8733</v>
+        <v>8743</v>
       </c>
       <c r="R10" t="n">
-        <v>111.41</v>
+        <v>111.63</v>
       </c>
     </row>
     <row r="11">
@@ -4405,10 +4405,10 @@
         <v>117.57</v>
       </c>
       <c r="Q11" t="n">
-        <v>6811</v>
+        <v>6808</v>
       </c>
       <c r="R11" t="n">
-        <v>116.86</v>
+        <v>116.77</v>
       </c>
     </row>
     <row r="12">
@@ -4473,10 +4473,10 @@
         <v>117.72</v>
       </c>
       <c r="Q12" t="n">
-        <v>33300</v>
+        <v>33183</v>
       </c>
       <c r="R12" t="n">
-        <v>112.61</v>
+        <v>111.95</v>
       </c>
     </row>
     <row r="13">
@@ -4541,10 +4541,10 @@
         <v>117.94</v>
       </c>
       <c r="Q13" t="n">
-        <v>114666</v>
+        <v>114733</v>
       </c>
       <c r="R13" t="n">
-        <v>122.44</v>
+        <v>122.55</v>
       </c>
     </row>
     <row r="14">
@@ -4609,10 +4609,10 @@
         <v>117.68</v>
       </c>
       <c r="Q14" t="n">
-        <v>8966</v>
+        <v>8983</v>
       </c>
       <c r="R14" t="n">
-        <v>115.99</v>
+        <v>116.33</v>
       </c>
     </row>
     <row r="15">
@@ -4677,10 +4677,10 @@
         <v>126.72</v>
       </c>
       <c r="Q15" t="n">
-        <v>6163</v>
+        <v>6270</v>
       </c>
       <c r="R15" t="n">
-        <v>124.28</v>
+        <v>127.27</v>
       </c>
     </row>
     <row r="16">
@@ -4745,10 +4745,10 @@
         <v>108.88</v>
       </c>
       <c r="Q16" t="n">
-        <v>1283</v>
+        <v>1278</v>
       </c>
       <c r="R16" t="n">
-        <v>109.87</v>
+        <v>109.13</v>
       </c>
     </row>
     <row r="17">
@@ -4813,10 +4813,10 @@
         <v>117.76</v>
       </c>
       <c r="Q17" t="n">
-        <v>6456</v>
+        <v>6460</v>
       </c>
       <c r="R17" t="n">
-        <v>113.53</v>
+        <v>113.62</v>
       </c>
     </row>
     <row r="18">
@@ -4881,10 +4881,10 @@
         <v>124.02</v>
       </c>
       <c r="Q18" t="n">
-        <v>4456</v>
+        <v>4449</v>
       </c>
       <c r="R18" t="n">
-        <v>126.79</v>
+        <v>126.53</v>
       </c>
     </row>
     <row r="19">
@@ -5017,10 +5017,10 @@
         <v>119.52</v>
       </c>
       <c r="Q20" t="n">
-        <v>12510</v>
+        <v>12460</v>
       </c>
       <c r="R20" t="n">
-        <v>113.51</v>
+        <v>112.76</v>
       </c>
     </row>
     <row r="21">
@@ -5085,10 +5085,10 @@
         <v>123.34</v>
       </c>
       <c r="Q21" t="n">
-        <v>27633</v>
+        <v>27616</v>
       </c>
       <c r="R21" t="n">
-        <v>118.34</v>
+        <v>118.23</v>
       </c>
     </row>
     <row r="22">
@@ -5221,10 +5221,10 @@
         <v>142.76</v>
       </c>
       <c r="Q23" t="n">
-        <v>1808</v>
+        <v>1798</v>
       </c>
       <c r="R23" t="n">
-        <v>149.86</v>
+        <v>149.03</v>
       </c>
     </row>
     <row r="24">
@@ -5289,10 +5289,10 @@
         <v>114.48</v>
       </c>
       <c r="Q24" t="n">
-        <v>11143</v>
+        <v>11160</v>
       </c>
       <c r="R24" t="n">
-        <v>109.48</v>
+        <v>109.77</v>
       </c>
     </row>
     <row r="25">
@@ -5425,10 +5425,10 @@
         <v>106.93</v>
       </c>
       <c r="Q26" t="n">
-        <v>21550</v>
+        <v>21533</v>
       </c>
       <c r="R26" t="n">
-        <v>106.03</v>
+        <v>105.88</v>
       </c>
     </row>
     <row r="27">
@@ -5493,10 +5493,10 @@
         <v>115.57</v>
       </c>
       <c r="Q27" t="n">
-        <v>7266</v>
+        <v>7260</v>
       </c>
       <c r="R27" t="n">
-        <v>115.32</v>
+        <v>115.15</v>
       </c>
     </row>
     <row r="28">
@@ -5561,10 +5561,10 @@
         <v>125.3</v>
       </c>
       <c r="Q28" t="n">
-        <v>5796</v>
+        <v>5780</v>
       </c>
       <c r="R28" t="n">
-        <v>116.96</v>
+        <v>116.44</v>
       </c>
     </row>
     <row r="29">
@@ -5629,10 +5629,10 @@
         <v>112.06</v>
       </c>
       <c r="Q29" t="n">
-        <v>43333</v>
+        <v>43316</v>
       </c>
       <c r="R29" t="n">
-        <v>107.65</v>
+        <v>107.58</v>
       </c>
     </row>
     <row r="30">
@@ -5697,10 +5697,10 @@
         <v>113.58</v>
       </c>
       <c r="Q30" t="n">
-        <v>53516</v>
+        <v>53583</v>
       </c>
       <c r="R30" t="n">
-        <v>108</v>
+        <v>108.24</v>
       </c>
     </row>
     <row r="31">
@@ -5765,10 +5765,10 @@
         <v>107.46</v>
       </c>
       <c r="Q31" t="n">
-        <v>9230</v>
+        <v>9256</v>
       </c>
       <c r="R31" t="n">
-        <v>108.02</v>
+        <v>108.57</v>
       </c>
     </row>
     <row r="32">
@@ -5833,10 +5833,10 @@
         <v>107.11</v>
       </c>
       <c r="Q32" t="n">
-        <v>6790</v>
+        <v>6770</v>
       </c>
       <c r="R32" t="n">
-        <v>113.55</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33">
@@ -5901,10 +5901,10 @@
         <v>105.57</v>
       </c>
       <c r="Q33" t="n">
-        <v>9320</v>
+        <v>9400</v>
       </c>
       <c r="R33" t="n">
-        <v>106.33</v>
+        <v>107.98</v>
       </c>
     </row>
     <row r="34">
@@ -5969,10 +5969,10 @@
         <v>102.68</v>
       </c>
       <c r="Q34" t="n">
-        <v>42650</v>
+        <v>42666</v>
       </c>
       <c r="R34" t="n">
-        <v>101.52</v>
+        <v>101.6</v>
       </c>
     </row>
     <row r="35">
@@ -6037,10 +6037,10 @@
         <v>104.35</v>
       </c>
       <c r="Q35" t="n">
-        <v>33116</v>
+        <v>33100</v>
       </c>
       <c r="R35" t="n">
-        <v>105.54</v>
+        <v>105.44</v>
       </c>
     </row>
     <row r="36">
@@ -6173,10 +6173,10 @@
         <v>117.99</v>
       </c>
       <c r="Q37" t="n">
-        <v>18760</v>
+        <v>18743</v>
       </c>
       <c r="R37" t="n">
-        <v>115.4</v>
+        <v>115.24</v>
       </c>
     </row>
   </sheetData>

--- a/Data/관심주_전년기준.xlsx
+++ b/Data/관심주_전년기준.xlsx
@@ -139,7 +139,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="10" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -193,6 +193,7 @@
     <xf numFmtId="9" fontId="1" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
@@ -561,13 +562,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T44"/>
+  <dimension ref="A1:T48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="10.21875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="10.21875" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="11.44140625" customWidth="1" style="9" min="1" max="1"/>
     <col width="7" bestFit="1" customWidth="1" style="8" min="2" max="2"/>
@@ -679,7 +680,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="19" t="n">
+      <c r="A2" s="20" t="n">
         <v>44940</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -747,7 +748,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="19" t="n">
+      <c r="A3" s="20" t="n">
         <v>44940</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -815,7 +816,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="19" t="n">
+      <c r="A4" s="20" t="n">
         <v>44940</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -883,7 +884,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="19" t="n">
+      <c r="A5" s="20" t="n">
         <v>44940</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -951,7 +952,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="19" t="n">
+      <c r="A6" s="20" t="n">
         <v>44940</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -1019,7 +1020,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="19" t="n">
+      <c r="A7" s="20" t="n">
         <v>44940</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -1087,7 +1088,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="19" t="n">
+      <c r="A8" s="20" t="n">
         <v>44940</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -1155,7 +1156,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="19" t="n">
+      <c r="A9" s="20" t="n">
         <v>44941</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -1223,7 +1224,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="19" t="n">
+      <c r="A10" s="20" t="n">
         <v>44941</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -1291,7 +1292,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="19" t="n">
+      <c r="A11" s="20" t="n">
         <v>44941</v>
       </c>
       <c r="B11" t="inlineStr">
@@ -1359,7 +1360,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="19" t="n">
+      <c r="A12" s="20" t="n">
         <v>44941</v>
       </c>
       <c r="B12" t="inlineStr">
@@ -1427,7 +1428,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="19" t="n">
+      <c r="A13" s="20" t="n">
         <v>44941</v>
       </c>
       <c r="B13" t="inlineStr">
@@ -1495,7 +1496,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="19" t="n">
+      <c r="A14" s="20" t="n">
         <v>44941</v>
       </c>
       <c r="B14" t="inlineStr">
@@ -1563,7 +1564,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="19" t="n">
+      <c r="A15" s="20" t="n">
         <v>44941</v>
       </c>
       <c r="B15" t="inlineStr">
@@ -1631,7 +1632,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="19" t="n">
+      <c r="A16" s="20" t="n">
         <v>44941</v>
       </c>
       <c r="B16" t="inlineStr">
@@ -1699,7 +1700,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="19" t="n">
+      <c r="A17" s="20" t="n">
         <v>44941</v>
       </c>
       <c r="B17" t="inlineStr">
@@ -1767,7 +1768,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="19" t="n">
+      <c r="A18" s="20" t="n">
         <v>44941</v>
       </c>
       <c r="B18" t="inlineStr">
@@ -1835,7 +1836,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="19" t="n">
+      <c r="A19" s="20" t="n">
         <v>44941</v>
       </c>
       <c r="B19" t="inlineStr">
@@ -1903,7 +1904,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="19" t="n">
+      <c r="A20" s="20" t="n">
         <v>44941</v>
       </c>
       <c r="B20" t="inlineStr">
@@ -1971,7 +1972,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="19" t="n">
+      <c r="A21" s="20" t="n">
         <v>44941</v>
       </c>
       <c r="B21" t="inlineStr">
@@ -2039,7 +2040,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="19" t="n">
+      <c r="A22" s="20" t="n">
         <v>44941</v>
       </c>
       <c r="B22" t="inlineStr">
@@ -2107,7 +2108,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="19" t="n">
+      <c r="A23" s="20" t="n">
         <v>44941</v>
       </c>
       <c r="B23" t="inlineStr">
@@ -2175,7 +2176,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="19" t="n">
+      <c r="A24" s="20" t="n">
         <v>44941</v>
       </c>
       <c r="B24" t="inlineStr">
@@ -2243,7 +2244,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="19" t="n">
+      <c r="A25" s="20" t="n">
         <v>44941</v>
       </c>
       <c r="B25" t="inlineStr">
@@ -2311,7 +2312,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="19" t="n">
+      <c r="A26" s="20" t="n">
         <v>44941</v>
       </c>
       <c r="B26" t="inlineStr">
@@ -2379,7 +2380,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="19" t="n">
+      <c r="A27" s="20" t="n">
         <v>44941</v>
       </c>
       <c r="B27" t="inlineStr">
@@ -2447,7 +2448,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="19" t="n">
+      <c r="A28" s="20" t="n">
         <v>44941</v>
       </c>
       <c r="B28" t="inlineStr">
@@ -2515,7 +2516,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="19" t="n">
+      <c r="A29" s="20" t="n">
         <v>44941</v>
       </c>
       <c r="B29" t="inlineStr">
@@ -2583,7 +2584,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="19" t="n">
+      <c r="A30" s="20" t="n">
         <v>44941</v>
       </c>
       <c r="B30" t="inlineStr">
@@ -2651,7 +2652,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="19" t="n">
+      <c r="A31" s="20" t="n">
         <v>44941</v>
       </c>
       <c r="B31" t="inlineStr">
@@ -2719,7 +2720,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="19" t="n">
+      <c r="A32" s="20" t="n">
         <v>44941</v>
       </c>
       <c r="B32" t="inlineStr">
@@ -2787,7 +2788,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="19" t="n">
+      <c r="A33" s="20" t="n">
         <v>44941</v>
       </c>
       <c r="B33" t="inlineStr">
@@ -2855,7 +2856,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="19" t="n">
+      <c r="A34" s="20" t="n">
         <v>44941</v>
       </c>
       <c r="B34" t="inlineStr">
@@ -2923,7 +2924,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="19" t="n">
+      <c r="A35" s="20" t="n">
         <v>44941</v>
       </c>
       <c r="B35" t="inlineStr">
@@ -2991,7 +2992,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="19" t="n">
+      <c r="A36" s="20" t="n">
         <v>44941</v>
       </c>
       <c r="B36" t="inlineStr">
@@ -3059,7 +3060,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="19" t="n">
+      <c r="A37" s="20" t="n">
         <v>44941</v>
       </c>
       <c r="B37" t="inlineStr">
@@ -3127,7 +3128,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="19" t="n">
+      <c r="A38" s="20" t="n">
         <v>44941</v>
       </c>
       <c r="B38" t="inlineStr">
@@ -3195,7 +3196,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="19" t="n">
+      <c r="A39" s="20" t="n">
         <v>44941</v>
       </c>
       <c r="B39" t="inlineStr">
@@ -3263,7 +3264,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="19" t="n">
+      <c r="A40" s="20" t="n">
         <v>44941</v>
       </c>
       <c r="B40" t="inlineStr">
@@ -3331,7 +3332,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="19" t="n">
+      <c r="A41" s="20" t="n">
         <v>44941</v>
       </c>
       <c r="B41" t="inlineStr">
@@ -3399,7 +3400,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="19" t="n">
+      <c r="A42" s="20" t="n">
         <v>44941</v>
       </c>
       <c r="B42" t="inlineStr">
@@ -3467,7 +3468,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="19" t="n">
+      <c r="A43" s="20" t="n">
         <v>44941</v>
       </c>
       <c r="B43" t="inlineStr">
@@ -3599,6 +3600,278 @@
       <c r="T44" t="inlineStr">
         <is>
           <t>2022-01-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="20" t="n">
+        <v>44944</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>018310</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>삼목에스폼</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>17000</v>
+      </c>
+      <c r="E45" t="n">
+        <v>13544</v>
+      </c>
+      <c r="F45" t="n">
+        <v>14111</v>
+      </c>
+      <c r="G45" t="n">
+        <v>14773</v>
+      </c>
+      <c r="H45" t="n">
+        <v>15434</v>
+      </c>
+      <c r="I45" t="n">
+        <v>15812</v>
+      </c>
+      <c r="J45" t="n">
+        <v>17059</v>
+      </c>
+      <c r="K45" t="n">
+        <v>18175</v>
+      </c>
+      <c r="L45" t="n">
+        <v>19290</v>
+      </c>
+      <c r="M45" t="n">
+        <v>21312</v>
+      </c>
+      <c r="N45" t="n">
+        <v>22900</v>
+      </c>
+      <c r="O45" t="n">
+        <v>26509</v>
+      </c>
+      <c r="P45" t="n">
+        <v>28834</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>32350</v>
+      </c>
+      <c r="R45" t="n">
+        <v>23725</v>
+      </c>
+      <c r="S45" t="n">
+        <v>13450</v>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>2022-09-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="21" t="n">
+        <v>44944</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>090470</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>제이스텍</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>8150</v>
+      </c>
+      <c r="E46" t="n">
+        <v>5093</v>
+      </c>
+      <c r="F46" t="n">
+        <v>5354</v>
+      </c>
+      <c r="G46" t="n">
+        <v>5659</v>
+      </c>
+      <c r="H46" t="n">
+        <v>5963</v>
+      </c>
+      <c r="I46" t="n">
+        <v>6137</v>
+      </c>
+      <c r="J46" t="n">
+        <v>6711</v>
+      </c>
+      <c r="K46" t="n">
+        <v>7225</v>
+      </c>
+      <c r="L46" t="n">
+        <v>7738</v>
+      </c>
+      <c r="M46" t="n">
+        <v>8669</v>
+      </c>
+      <c r="N46" t="n">
+        <v>9400</v>
+      </c>
+      <c r="O46" t="n">
+        <v>11061</v>
+      </c>
+      <c r="P46" t="n">
+        <v>12131</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>13750</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5440</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5050</v>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>2022-06-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="21" t="n">
+        <v>44944</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>018470</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>조일알미늄</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>2140</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1498</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1579</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1674</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1768</v>
+      </c>
+      <c r="I47" t="n">
+        <v>1822</v>
+      </c>
+      <c r="J47" t="n">
+        <v>2000</v>
+      </c>
+      <c r="K47" t="n">
+        <v>2160</v>
+      </c>
+      <c r="L47" t="n">
+        <v>2319</v>
+      </c>
+      <c r="M47" t="n">
+        <v>2608</v>
+      </c>
+      <c r="N47" t="n">
+        <v>2835</v>
+      </c>
+      <c r="O47" t="n">
+        <v>3350</v>
+      </c>
+      <c r="P47" t="n">
+        <v>3682</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4185</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1083</v>
+      </c>
+      <c r="S47" t="n">
+        <v>1485</v>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>2022-07-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="21" t="n">
+        <v>44944</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010820</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>퍼스텍</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>3565</v>
+      </c>
+      <c r="E48" t="n">
+        <v>2638</v>
+      </c>
+      <c r="F48" t="n">
+        <v>2837</v>
+      </c>
+      <c r="G48" t="n">
+        <v>3069</v>
+      </c>
+      <c r="H48" t="n">
+        <v>3301</v>
+      </c>
+      <c r="I48" t="n">
+        <v>3433</v>
+      </c>
+      <c r="J48" t="n">
+        <v>3871</v>
+      </c>
+      <c r="K48" t="n">
+        <v>4262</v>
+      </c>
+      <c r="L48" t="n">
+        <v>4653</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5363</v>
+      </c>
+      <c r="N48" t="n">
+        <v>5920</v>
+      </c>
+      <c r="O48" t="n">
+        <v>7186</v>
+      </c>
+      <c r="P48" t="n">
+        <v>8001</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>9235</v>
+      </c>
+      <c r="R48" t="n">
+        <v>910</v>
+      </c>
+      <c r="S48" t="n">
+        <v>2605</v>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
         </is>
       </c>
     </row>
@@ -3614,13 +3887,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R37"/>
+  <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="10.33203125" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
     <col width="7" bestFit="1" customWidth="1" style="4" min="2" max="2"/>
@@ -3732,7 +4005,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="19" t="n">
+      <c r="A2" s="20" t="n">
         <v>44941</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -3800,7 +4073,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="19" t="n">
+      <c r="A3" s="20" t="n">
         <v>44941</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -3868,7 +4141,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="19" t="n">
+      <c r="A4" s="20" t="n">
         <v>44941</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -3936,7 +4209,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="19" t="n">
+      <c r="A5" s="20" t="n">
         <v>44941</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -4004,7 +4277,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="19" t="n">
+      <c r="A6" s="20" t="n">
         <v>44941</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -4072,7 +4345,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="19" t="n">
+      <c r="A7" s="20" t="n">
         <v>44941</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -4140,7 +4413,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="19" t="n">
+      <c r="A8" s="20" t="n">
         <v>44941</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -4208,7 +4481,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="19" t="n">
+      <c r="A9" s="20" t="n">
         <v>44941</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -4276,7 +4549,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="19" t="n">
+      <c r="A10" s="20" t="n">
         <v>44941</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -4344,7 +4617,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="19" t="n">
+      <c r="A11" s="20" t="n">
         <v>44941</v>
       </c>
       <c r="B11" t="inlineStr">
@@ -4412,7 +4685,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="19" t="n">
+      <c r="A12" s="20" t="n">
         <v>44941</v>
       </c>
       <c r="B12" t="inlineStr">
@@ -4480,7 +4753,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="19" t="n">
+      <c r="A13" s="20" t="n">
         <v>44941</v>
       </c>
       <c r="B13" t="inlineStr">
@@ -4548,7 +4821,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="19" t="n">
+      <c r="A14" s="20" t="n">
         <v>44941</v>
       </c>
       <c r="B14" t="inlineStr">
@@ -4616,7 +4889,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="19" t="n">
+      <c r="A15" s="20" t="n">
         <v>44941</v>
       </c>
       <c r="B15" t="inlineStr">
@@ -4684,7 +4957,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="19" t="n">
+      <c r="A16" s="20" t="n">
         <v>44941</v>
       </c>
       <c r="B16" t="inlineStr">
@@ -4752,7 +5025,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="19" t="n">
+      <c r="A17" s="20" t="n">
         <v>44941</v>
       </c>
       <c r="B17" t="inlineStr">
@@ -4820,7 +5093,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="19" t="n">
+      <c r="A18" s="20" t="n">
         <v>44941</v>
       </c>
       <c r="B18" t="inlineStr">
@@ -4888,7 +5161,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="19" t="n">
+      <c r="A19" s="20" t="n">
         <v>44941</v>
       </c>
       <c r="B19" t="inlineStr">
@@ -4956,7 +5229,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="19" t="n">
+      <c r="A20" s="20" t="n">
         <v>44941</v>
       </c>
       <c r="B20" t="inlineStr">
@@ -5024,7 +5297,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="19" t="n">
+      <c r="A21" s="20" t="n">
         <v>44941</v>
       </c>
       <c r="B21" t="inlineStr">
@@ -5092,7 +5365,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="19" t="n">
+      <c r="A22" s="20" t="n">
         <v>44941</v>
       </c>
       <c r="B22" t="inlineStr">
@@ -5160,7 +5433,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="19" t="n">
+      <c r="A23" s="20" t="n">
         <v>44941</v>
       </c>
       <c r="B23" t="inlineStr">
@@ -5228,7 +5501,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="19" t="n">
+      <c r="A24" s="20" t="n">
         <v>44941</v>
       </c>
       <c r="B24" t="inlineStr">
@@ -5296,7 +5569,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="19" t="n">
+      <c r="A25" s="20" t="n">
         <v>44941</v>
       </c>
       <c r="B25" t="inlineStr">
@@ -5364,7 +5637,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="19" t="n">
+      <c r="A26" s="20" t="n">
         <v>44941</v>
       </c>
       <c r="B26" t="inlineStr">
@@ -5432,7 +5705,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="19" t="n">
+      <c r="A27" s="20" t="n">
         <v>44941</v>
       </c>
       <c r="B27" t="inlineStr">
@@ -5500,7 +5773,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="19" t="n">
+      <c r="A28" s="20" t="n">
         <v>44941</v>
       </c>
       <c r="B28" t="inlineStr">
@@ -5568,7 +5841,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="19" t="n">
+      <c r="A29" s="20" t="n">
         <v>44941</v>
       </c>
       <c r="B29" t="inlineStr">
@@ -5636,7 +5909,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="19" t="n">
+      <c r="A30" s="20" t="n">
         <v>44941</v>
       </c>
       <c r="B30" t="inlineStr">
@@ -5704,7 +5977,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="19" t="n">
+      <c r="A31" s="20" t="n">
         <v>44941</v>
       </c>
       <c r="B31" t="inlineStr">
@@ -5772,7 +6045,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="19" t="n">
+      <c r="A32" s="20" t="n">
         <v>44941</v>
       </c>
       <c r="B32" t="inlineStr">
@@ -5840,7 +6113,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="19" t="n">
+      <c r="A33" s="20" t="n">
         <v>44941</v>
       </c>
       <c r="B33" t="inlineStr">
@@ -5908,7 +6181,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="19" t="n">
+      <c r="A34" s="20" t="n">
         <v>44941</v>
       </c>
       <c r="B34" t="inlineStr">
@@ -5976,7 +6249,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="19" t="n">
+      <c r="A35" s="20" t="n">
         <v>44941</v>
       </c>
       <c r="B35" t="inlineStr">
@@ -6044,7 +6317,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="19" t="n">
+      <c r="A36" s="20" t="n">
         <v>44941</v>
       </c>
       <c r="B36" t="inlineStr">
@@ -6177,6 +6450,254 @@
       </c>
       <c r="R37" t="n">
         <v>115.24</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="20" t="n">
+        <v>44944</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>018310</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>삼목에스폼</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>17000</v>
+      </c>
+      <c r="E38" t="n">
+        <v>13450</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2022-09-28</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>22900</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>2022-08-08</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>31750</v>
+      </c>
+      <c r="J38" t="n">
+        <v>12650</v>
+      </c>
+      <c r="K38" t="n">
+        <v>17856</v>
+      </c>
+      <c r="L38" t="n">
+        <v>95.2</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>겨울2</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>여름1</t>
+        </is>
+      </c>
+      <c r="O38" t="n">
+        <v>15850</v>
+      </c>
+      <c r="P38" t="n">
+        <v>107.26</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="21" t="n">
+        <v>44944</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>090470</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>제이스텍</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>8150</v>
+      </c>
+      <c r="E39" t="n">
+        <v>5050</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2022-06-23</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>9400</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>2022-11-29</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>9400</v>
+      </c>
+      <c r="J39" t="n">
+        <v>5050</v>
+      </c>
+      <c r="K39" t="n">
+        <v>7249</v>
+      </c>
+      <c r="L39" t="n">
+        <v>112.43</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>봄2</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>여름2</t>
+        </is>
+      </c>
+      <c r="O39" t="n">
+        <v>7453</v>
+      </c>
+      <c r="P39" t="n">
+        <v>109.35</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="21" t="n">
+        <v>44944</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>018470</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>조일알미늄</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>2140</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1485</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2022-07-04</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>2835</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>2022-04-25</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>2990</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1485</v>
+      </c>
+      <c r="K40" t="n">
+        <v>2280</v>
+      </c>
+      <c r="L40" t="n">
+        <v>93.84</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>겨울2</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>여름1</t>
+        </is>
+      </c>
+      <c r="O40" t="n">
+        <v>2158</v>
+      </c>
+      <c r="P40" t="n">
+        <v>99.15000000000001</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="21" t="n">
+        <v>44944</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010820</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>퍼스텍</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>3565</v>
+      </c>
+      <c r="E41" t="n">
+        <v>2605</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>5920</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>2022-06-08</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>5920</v>
+      </c>
+      <c r="J41" t="n">
+        <v>2455</v>
+      </c>
+      <c r="K41" t="n">
+        <v>3329</v>
+      </c>
+      <c r="L41" t="n">
+        <v>107.08</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>봄1</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>여름1</t>
+        </is>
+      </c>
+      <c r="O41" t="n">
+        <v>3215</v>
+      </c>
+      <c r="P41" t="n">
+        <v>110.89</v>
       </c>
     </row>
   </sheetData>
@@ -6196,7 +6717,7 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="8.88671875" customWidth="1" style="4" min="1" max="2"/>
   </cols>
@@ -6275,7 +6796,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="10.33203125" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
     <col width="10.33203125" customWidth="1" style="4" min="2" max="2"/>

--- a/Data/관심주_전년기준.xlsx
+++ b/Data/관심주_전년기준.xlsx
@@ -568,7 +568,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="10.21875" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="10.21875" defaultRowHeight="14.4"/>
   <cols>
     <col width="11.44140625" customWidth="1" style="9" min="1" max="1"/>
     <col width="7" bestFit="1" customWidth="1" style="8" min="2" max="2"/>
@@ -3893,7 +3893,7 @@
       <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="10.33203125" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
     <col width="7" bestFit="1" customWidth="1" style="4" min="2" max="2"/>
@@ -6513,6 +6513,12 @@
       <c r="P38" t="n">
         <v>107.26</v>
       </c>
+      <c r="Q38" t="n">
+        <v>15850</v>
+      </c>
+      <c r="R38" t="n">
+        <v>107.26</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="21" t="n">
@@ -6575,6 +6581,12 @@
       <c r="P39" t="n">
         <v>109.35</v>
       </c>
+      <c r="Q39" t="n">
+        <v>7453</v>
+      </c>
+      <c r="R39" t="n">
+        <v>109.35</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="21" t="n">
@@ -6637,6 +6649,12 @@
       <c r="P40" t="n">
         <v>99.15000000000001</v>
       </c>
+      <c r="Q40" t="n">
+        <v>2158</v>
+      </c>
+      <c r="R40" t="n">
+        <v>99.15000000000001</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="21" t="n">
@@ -6697,6 +6715,12 @@
         <v>3215</v>
       </c>
       <c r="P41" t="n">
+        <v>110.89</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>3215</v>
+      </c>
+      <c r="R41" t="n">
         <v>110.89</v>
       </c>
     </row>
@@ -6717,7 +6741,7 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="8.88671875" customWidth="1" style="4" min="1" max="2"/>
   </cols>
@@ -6796,7 +6820,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="10.33203125" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
     <col width="10.33203125" customWidth="1" style="4" min="2" max="2"/>
